--- a/src/main/resources/Data_Engine/Driver_File.xlsx
+++ b/src/main/resources/Data_Engine/Driver_File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanmugasundharam\Git\Selenium_Hybrid_Framework\Selenium\src\main\resources\Data_Engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanmugasundharam\Git\S2_Application\Selenium\src\main\resources\Data_Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF66121-67BE-4725-8230-6CFEC8F3917C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231E2FF-0B58-457F-9078-7ABA68DD0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>S No</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Action Keyword</t>
-  </si>
-  <si>
-    <t>TestSuite1()</t>
   </si>
   <si>
     <t>TestSuite2()</t>
@@ -381,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,11 +440,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/src/main/resources/Data_Engine/Driver_File.xlsx
+++ b/src/main/resources/Data_Engine/Driver_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanmugasundharam\Git\S2_Application\Selenium\src\main\resources\Data_Engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2231E2FF-0B58-457F-9078-7ABA68DD0287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817C5447-A8B2-48E5-AFE2-E964D70BC836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>S No</t>
   </si>
@@ -39,28 +39,67 @@
     <t>Req_ID</t>
   </si>
   <si>
-    <t>Test_CaseDescription</t>
-  </si>
-  <si>
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
-    <t>Test Scenatio ID</t>
-  </si>
-  <si>
     <t>Execution Status</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>Action Keyword</t>
   </si>
   <si>
     <t>TestSuite2()</t>
+  </si>
+  <si>
+    <t>S2 Web Application</t>
+  </si>
+  <si>
+    <t>S2REQ1</t>
+  </si>
+  <si>
+    <t>S2REQ2</t>
+  </si>
+  <si>
+    <t>The Requirement is to Allow user to fetch the Shows.</t>
+  </si>
+  <si>
+    <t>The Requirement is to Allow user to Login to the S2 Application.</t>
+  </si>
+  <si>
+    <t>To Check whether the user is able to login to the S2 application with Valid Credentials</t>
+  </si>
+  <si>
+    <t>To Check whether the user is able to fetch the shows from Shot Page.</t>
+  </si>
+  <si>
+    <t>LGR1TC1</t>
+  </si>
+  <si>
+    <t>MWR2TC1</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Test Scenario Description</t>
+  </si>
+  <si>
+    <t>Test Scenario ID</t>
+  </si>
+  <si>
+    <t>To Check Login Flow if the S2 is working as expected with Valid Cred.</t>
+  </si>
+  <si>
+    <t>To Check whether the Fetch shows is working as expected.</t>
+  </si>
+  <si>
+    <t>LGR1TS1TC1</t>
+  </si>
+  <si>
+    <t>TestSuite1()</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -378,20 +417,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="29.140625" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.7109375" customWidth="1"/>
     <col min="8" max="8" width="32.5703125" customWidth="1"/>
     <col min="9" max="9" width="22" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
@@ -411,22 +450,22 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -434,10 +473,63 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
